--- a/new_scripts/CSB.xlsx
+++ b/new_scripts/CSB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10755" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="861">
   <si>
     <t>1.091</t>
   </si>
@@ -1195,7 +1195,10 @@
     <t>12.310</t>
   </si>
   <si>
-    <t>MTWRF1.30-3</t>
+    <t>*MEETS MWF ONLY 1/22 TO 1/26</t>
+  </si>
+  <si>
+    <t>MTWRF1.30-3 (1/29 TO 2/2)</t>
   </si>
   <si>
     <t>12.411</t>
@@ -2662,7 +2665,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2950,7 +2955,7 @@
   <dimension ref="A1:D724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,16 +2968,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>236</v>
+        <v>385</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6452,23 +6457,23 @@
         <v>378</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>33</v>
@@ -6479,7 +6484,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>33</v>
@@ -6490,7 +6495,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>13</v>
@@ -6501,7 +6506,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>1</v>
@@ -6512,18 +6517,18 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>33</v>
@@ -6534,7 +6539,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>1</v>
@@ -6545,7 +6550,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>1</v>
@@ -6556,7 +6561,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>1</v>
@@ -6567,7 +6572,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>1</v>
@@ -6578,7 +6583,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>1</v>
@@ -6589,7 +6594,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>1</v>
@@ -6600,7 +6605,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>1</v>
@@ -6611,32 +6616,32 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>1</v>
@@ -6647,7 +6652,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>33</v>
@@ -6661,7 +6666,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>1</v>
@@ -6672,7 +6677,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>1</v>
@@ -6683,7 +6688,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>1</v>
@@ -6694,7 +6699,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>1</v>
@@ -6705,7 +6710,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>1</v>
@@ -6716,7 +6721,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>1</v>
@@ -6727,7 +6732,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>1</v>
@@ -6738,7 +6743,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>1</v>
@@ -6749,7 +6754,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>1</v>
@@ -6760,7 +6765,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>1</v>
@@ -6771,7 +6776,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>1</v>
@@ -6782,7 +6787,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>1</v>
@@ -6793,7 +6798,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>1</v>
@@ -6804,7 +6809,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>1</v>
@@ -6815,79 +6820,79 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>143</v>
@@ -6898,7 +6903,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>1</v>
@@ -6909,105 +6914,105 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>1</v>
@@ -7018,7 +7023,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>1</v>
@@ -7029,7 +7034,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>1</v>
@@ -7040,7 +7045,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>33</v>
@@ -7049,26 +7054,26 @@
         <v>184</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>1</v>
@@ -7079,13 +7084,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>215</v>
@@ -7093,7 +7098,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1</v>
@@ -7104,21 +7109,21 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>1</v>
@@ -7129,21 +7134,21 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D353" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>1</v>
@@ -7154,21 +7159,21 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>1</v>
@@ -7179,21 +7184,21 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D357" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>1</v>
@@ -7204,7 +7209,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>1</v>
@@ -7215,7 +7220,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>1</v>
@@ -7226,7 +7231,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>1</v>
@@ -7237,7 +7242,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>1</v>
@@ -7248,7 +7253,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>1</v>
@@ -7259,7 +7264,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>33</v>
@@ -7270,7 +7275,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>33</v>
@@ -7281,10 +7286,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>2</v>
@@ -7292,7 +7297,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>33</v>
@@ -7303,7 +7308,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>1</v>
@@ -7314,7 +7319,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>1</v>
@@ -7325,7 +7330,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>33</v>
@@ -7336,7 +7341,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>1</v>
@@ -7347,7 +7352,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>1</v>
@@ -7358,7 +7363,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>1</v>
@@ -7369,7 +7374,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>1</v>
@@ -7380,7 +7385,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>1</v>
@@ -7391,7 +7396,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>1</v>
@@ -7402,7 +7407,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>1</v>
@@ -7413,7 +7418,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>1</v>
@@ -7424,7 +7429,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>1</v>
@@ -7435,7 +7440,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>33</v>
@@ -7446,10 +7451,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>2</v>
@@ -7457,7 +7462,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>33</v>
@@ -7468,10 +7473,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>2</v>
@@ -7479,7 +7484,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>1</v>
@@ -7490,7 +7495,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>1</v>
@@ -7501,7 +7506,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>1</v>
@@ -7512,7 +7517,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>1</v>
@@ -7523,7 +7528,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>1</v>
@@ -7534,7 +7539,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>1</v>
@@ -7545,7 +7550,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>1</v>
@@ -7556,7 +7561,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>1</v>
@@ -7567,21 +7572,21 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1</v>
@@ -7592,7 +7597,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>1</v>
@@ -7603,7 +7608,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>1</v>
@@ -7614,7 +7619,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1</v>
@@ -7625,7 +7630,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>1</v>
@@ -7636,7 +7641,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>1</v>
@@ -7647,7 +7652,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>1</v>
@@ -7658,7 +7663,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>1</v>
@@ -7669,7 +7674,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>1</v>
@@ -7680,7 +7685,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>1</v>
@@ -7691,7 +7696,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>1</v>
@@ -7702,7 +7707,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>1</v>
@@ -7713,7 +7718,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>1</v>
@@ -7724,7 +7729,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>1</v>
@@ -7735,7 +7740,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>1</v>
@@ -7746,7 +7751,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>1</v>
@@ -7757,7 +7762,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>1</v>
@@ -7768,7 +7773,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1</v>
@@ -7779,7 +7784,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>1</v>
@@ -7790,7 +7795,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>1</v>
@@ -7801,7 +7806,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>1</v>
@@ -7812,7 +7817,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>1</v>
@@ -7823,7 +7828,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>1</v>
@@ -7834,7 +7839,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>1</v>
@@ -7845,7 +7850,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>1</v>
@@ -7856,13 +7861,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>65</v>
@@ -7870,7 +7875,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>1</v>
@@ -7881,21 +7886,21 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>1</v>
@@ -7906,7 +7911,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>1</v>
@@ -7917,7 +7922,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>1</v>
@@ -7928,7 +7933,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>1</v>
@@ -7939,7 +7944,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>1</v>
@@ -7950,7 +7955,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>33</v>
@@ -7961,21 +7966,21 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>1</v>
@@ -7986,57 +7991,57 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>1</v>
@@ -8047,7 +8052,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>1</v>
@@ -8058,7 +8063,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1</v>
@@ -8069,7 +8074,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>1</v>
@@ -8080,7 +8085,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>1</v>
@@ -8091,7 +8096,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>1</v>
@@ -8102,7 +8107,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>1</v>
@@ -8113,7 +8118,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>1</v>
@@ -8124,7 +8129,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>1</v>
@@ -8135,7 +8140,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>1</v>
@@ -8146,7 +8151,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>1</v>
@@ -8157,7 +8162,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>1</v>
@@ -8168,7 +8173,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>1</v>
@@ -8179,13 +8184,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>229</v>
@@ -8193,21 +8198,21 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>1</v>
@@ -8218,7 +8223,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1</v>
@@ -8229,21 +8234,21 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>1</v>
@@ -8254,7 +8259,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>1</v>
@@ -8265,7 +8270,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>33</v>
@@ -8276,7 +8281,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>1</v>
@@ -8287,7 +8292,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>1</v>
@@ -8298,35 +8303,35 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>1</v>
@@ -8337,7 +8342,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>1</v>
@@ -8348,7 +8353,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>1</v>
@@ -8359,7 +8364,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>1</v>
@@ -8370,13 +8375,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>229</v>
@@ -8384,13 +8389,13 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>229</v>
@@ -8398,7 +8403,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>1</v>
@@ -8409,21 +8414,21 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>1</v>
@@ -8434,7 +8439,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>1</v>
@@ -8445,7 +8450,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>1</v>
@@ -8456,7 +8461,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>1</v>
@@ -8467,7 +8472,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>33</v>
@@ -8476,96 +8481,96 @@
         <v>228</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C472" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D472" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="D472" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C476" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D476" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="D476" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>294</v>
@@ -8576,7 +8581,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>33</v>
@@ -8585,40 +8590,40 @@
         <v>188</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>1</v>
@@ -8629,7 +8634,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>1</v>
@@ -8640,7 +8645,7 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>1</v>
@@ -8651,21 +8656,21 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>1</v>
@@ -8676,21 +8681,21 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>1</v>
@@ -8701,7 +8706,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>1</v>
@@ -8712,7 +8717,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>1</v>
@@ -8723,7 +8728,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>1</v>
@@ -8734,7 +8739,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>33</v>
@@ -8743,12 +8748,12 @@
         <v>221</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>1</v>
@@ -8759,7 +8764,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>1</v>
@@ -8770,7 +8775,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>1</v>
@@ -8781,7 +8786,7 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>1</v>
@@ -8792,7 +8797,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>1</v>
@@ -8803,7 +8808,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>1</v>
@@ -8814,7 +8819,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>1</v>
@@ -8825,7 +8830,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>1</v>
@@ -8836,7 +8841,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>1</v>
@@ -8847,7 +8852,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>1</v>
@@ -8858,7 +8863,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>1</v>
@@ -8869,7 +8874,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1</v>
@@ -8880,7 +8885,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>1</v>
@@ -8891,7 +8896,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>1</v>
@@ -8902,7 +8907,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>1</v>
@@ -8913,7 +8918,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>1</v>
@@ -8924,7 +8929,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>1</v>
@@ -8935,7 +8940,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>1</v>
@@ -8946,7 +8951,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>1</v>
@@ -8957,7 +8962,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>1</v>
@@ -8968,7 +8973,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>1</v>
@@ -8979,7 +8984,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>1</v>
@@ -8990,57 +8995,57 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D517" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C517" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="D517" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>1</v>
@@ -9051,38 +9056,38 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D521" s="1" t="s">
         <v>364</v>
@@ -9090,24 +9095,24 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C523" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>364</v>
@@ -9115,24 +9120,24 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D525" s="1" t="s">
         <v>253</v>
@@ -9140,49 +9145,49 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>253</v>
@@ -9190,24 +9195,24 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>253</v>
@@ -9215,63 +9220,63 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D536" s="1" t="s">
         <v>204</v>
@@ -9279,38 +9284,38 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C539" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="D539" s="1" t="s">
         <v>204</v>
@@ -9318,24 +9323,24 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>313</v>
@@ -9343,57 +9348,57 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C543" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B543" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="D543" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>33</v>
@@ -9404,7 +9409,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>33</v>
@@ -9415,82 +9420,82 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C551" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B551" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="D551" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>1</v>
@@ -9501,24 +9506,24 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D556" s="1" t="s">
         <v>65</v>
@@ -9526,7 +9531,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>1</v>
@@ -9537,7 +9542,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1</v>
@@ -9548,7 +9553,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>1</v>
@@ -9559,7 +9564,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>1</v>
@@ -9570,7 +9575,7 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>1</v>
@@ -9581,7 +9586,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>1</v>
@@ -9592,7 +9597,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>1</v>
@@ -9603,13 +9608,13 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>2</v>
@@ -9617,13 +9622,13 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>2</v>
@@ -9631,7 +9636,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>1</v>
@@ -9642,7 +9647,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>1</v>
@@ -9653,7 +9658,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>1</v>
@@ -9664,7 +9669,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>1</v>
@@ -9675,7 +9680,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>1</v>
@@ -9686,7 +9691,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>1</v>
@@ -9697,7 +9702,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>1</v>
@@ -9708,7 +9713,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>1</v>
@@ -9719,7 +9724,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>1</v>
@@ -9730,7 +9735,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>1</v>
@@ -9741,7 +9746,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>1</v>
@@ -9752,7 +9757,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>1</v>
@@ -9763,7 +9768,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>1</v>
@@ -9774,7 +9779,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>1</v>
@@ -9785,7 +9790,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>1</v>
@@ -9796,63 +9801,63 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>1</v>
@@ -9863,7 +9868,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>1</v>
@@ -9874,7 +9879,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>1</v>
@@ -9885,7 +9890,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>1</v>
@@ -9896,7 +9901,7 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>1</v>
@@ -9907,7 +9912,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>1</v>
@@ -9918,7 +9923,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>1</v>
@@ -9929,7 +9934,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>1</v>
@@ -9940,7 +9945,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>1</v>
@@ -9951,7 +9956,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>1</v>
@@ -9962,7 +9967,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>1</v>
@@ -9973,7 +9978,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>1</v>
@@ -9984,7 +9989,7 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>1</v>
@@ -9995,7 +10000,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>1</v>
@@ -10006,13 +10011,13 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D599" s="1" t="s">
         <v>223</v>
@@ -10020,7 +10025,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>1</v>
@@ -10031,13 +10036,13 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D601" s="1" t="s">
         <v>364</v>
@@ -10045,7 +10050,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>1</v>
@@ -10056,7 +10061,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>1</v>
@@ -10067,7 +10072,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>1</v>
@@ -10078,7 +10083,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>1</v>
@@ -10089,7 +10094,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>1</v>
@@ -10100,7 +10105,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>1</v>
@@ -10111,7 +10116,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>1</v>
@@ -10122,7 +10127,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>1</v>
@@ -10133,13 +10138,13 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>302</v>
@@ -10147,21 +10152,21 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>1</v>
@@ -10172,7 +10177,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>1</v>
@@ -10183,7 +10188,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>1</v>
@@ -10194,7 +10199,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>1</v>
@@ -10205,7 +10210,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>1</v>
@@ -10216,7 +10221,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>1</v>
@@ -10227,7 +10232,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>1</v>
@@ -10238,7 +10243,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>33</v>
@@ -10252,7 +10257,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>1</v>
@@ -10263,7 +10268,7 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>1</v>
@@ -10274,7 +10279,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>1</v>
@@ -10285,7 +10290,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>1</v>
@@ -10296,7 +10301,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>1</v>
@@ -10307,7 +10312,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>1</v>
@@ -10318,7 +10323,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>1</v>
@@ -10329,7 +10334,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>1</v>
@@ -10340,7 +10345,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>1</v>
@@ -10351,7 +10356,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>1</v>
@@ -10362,7 +10367,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>1</v>
@@ -10373,7 +10378,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>1</v>
@@ -10384,7 +10389,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>1</v>
@@ -10395,7 +10400,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B633" s="1" t="s">
         <v>1</v>
@@ -10406,35 +10411,35 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D635" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C635" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D635" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>1</v>
@@ -10445,7 +10450,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>1</v>
@@ -10456,7 +10461,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>1</v>
@@ -10467,7 +10472,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>1</v>
@@ -10478,7 +10483,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>1</v>
@@ -10489,7 +10494,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>1</v>
@@ -10500,7 +10505,7 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>1</v>
@@ -10511,7 +10516,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>1</v>
@@ -10522,7 +10527,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>1</v>
@@ -10533,7 +10538,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>1</v>
@@ -10544,63 +10549,63 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>1</v>
@@ -10611,7 +10616,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>1</v>
@@ -10622,7 +10627,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B652" s="1" t="s">
         <v>1</v>
@@ -10633,7 +10638,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>1</v>
@@ -10644,7 +10649,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>1</v>
@@ -10655,7 +10660,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>1</v>
@@ -10666,113 +10671,113 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D657" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="B657" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C657" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D657" s="1" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D661" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="B661" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C661" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D661" s="1" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D663" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="B663" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C663" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D663" s="1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>1</v>
@@ -10783,21 +10788,21 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>1</v>
@@ -10808,7 +10813,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>1</v>
@@ -10819,7 +10824,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>1</v>
@@ -10830,38 +10835,38 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D671" s="1" t="s">
         <v>2</v>
@@ -10869,13 +10874,13 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D672" s="1" t="s">
         <v>2</v>
@@ -10883,13 +10888,13 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>2</v>
@@ -10897,13 +10902,13 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>2</v>
@@ -10911,7 +10916,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>1</v>
@@ -10922,7 +10927,7 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>1</v>
@@ -10933,49 +10938,49 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D680" s="1" t="s">
         <v>223</v>
@@ -10983,7 +10988,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>33</v>
@@ -10994,7 +10999,7 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>1</v>
@@ -11005,7 +11010,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>1</v>
@@ -11016,7 +11021,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>1</v>
@@ -11027,7 +11032,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>1</v>
@@ -11038,7 +11043,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>1</v>
@@ -11049,7 +11054,7 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>1</v>
@@ -11060,7 +11065,7 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B688" s="1" t="s">
         <v>1</v>
@@ -11071,21 +11076,21 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>1</v>
@@ -11096,7 +11101,7 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>1</v>
@@ -11107,7 +11112,7 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>1</v>
@@ -11118,7 +11123,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>1</v>
@@ -11129,7 +11134,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>1</v>
@@ -11140,7 +11145,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>1</v>
@@ -11151,7 +11156,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>1</v>
@@ -11162,7 +11167,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>1</v>
@@ -11173,7 +11178,7 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>1</v>
@@ -11184,7 +11189,7 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>1</v>
@@ -11195,7 +11200,7 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>1</v>
@@ -11206,7 +11211,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>1</v>
@@ -11217,7 +11222,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>1</v>
@@ -11228,7 +11233,7 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>1</v>
@@ -11239,7 +11244,7 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>1</v>
@@ -11250,18 +11255,18 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>33</v>
@@ -11270,12 +11275,12 @@
         <v>162</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>1</v>
@@ -11286,13 +11291,13 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D708" s="1" t="s">
         <v>364</v>
@@ -11300,7 +11305,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>1</v>
@@ -11311,7 +11316,7 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>33</v>
@@ -11320,12 +11325,12 @@
         <v>162</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>149</v>
@@ -11334,23 +11339,23 @@
         <v>162</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>33</v>
@@ -11359,12 +11364,12 @@
         <v>162</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>1</v>
@@ -11375,7 +11380,7 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>1</v>
@@ -11386,7 +11391,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>1</v>
@@ -11397,7 +11402,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>1</v>
@@ -11408,7 +11413,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>1</v>
@@ -11419,7 +11424,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>1</v>
@@ -11430,7 +11435,7 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>1</v>
@@ -11441,7 +11446,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>1</v>
@@ -11452,7 +11457,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>1</v>
@@ -11463,7 +11468,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>1</v>
@@ -11474,7 +11479,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>1</v>
